--- a/Section 11/107. COURSE CHALLENGE - Part 1/93.+Course-challenge-before-solutions.xlsx
+++ b/Section 11/107. COURSE CHALLENGE - Part 1/93.+Course-challenge-before-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ned\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 11\107. COURSE CHALLENGE - Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6856D12-090A-4015-913B-7DBD964F9DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7870292-CC32-4583-8B40-140AFED34873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source --&gt;" sheetId="3" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -264,7 +264,6 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -602,7 +601,7 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4484,7 +4483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4511,7 +4512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4562,7 +4565,7 @@
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Section 11/107. COURSE CHALLENGE - Part 1/93.+Course-challenge-before-solutions.xlsx
+++ b/Section 11/107. COURSE CHALLENGE - Part 1/93.+Course-challenge-before-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 11\107. COURSE CHALLENGE - Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7870292-CC32-4583-8B40-140AFED34873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD3ABB-B9BD-45DE-85EE-0756AF0AD8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="41">
   <si>
     <t>Period</t>
   </si>
@@ -143,6 +143,18 @@
   <si>
     <t>Please provide a monthly breakdown of Revenues by type of client and calculate the percentage incidence that each client type has on the company's Revenues.</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Cogs</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +258,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -264,6 +276,9 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1135,7 +1150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O195"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4481,26 +4498,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="14" width="9.140625" style="1" outlineLevel="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
